--- a/data/trans_camb/P22_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P22_R2-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.5924815214033964</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.406546310171036</v>
+        <v>2.406546310171037</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.08863134137574169</v>
@@ -664,7 +664,7 @@
         <v>-1.311487161685814</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.728563523403719</v>
+        <v>2.728563523403718</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.557415423590988</v>
+        <v>-5.768835220191214</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.616023767206617</v>
+        <v>-3.590770836622069</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.847142118397717</v>
+        <v>-1.948551005905868</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.853914699855338</v>
+        <v>-2.715477812789774</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.414191109850894</v>
+        <v>-4.392465196476397</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.8120294752359006</v>
+        <v>-0.7960607000240434</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.411875782203282</v>
+        <v>-3.306393456903493</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.319457287658922</v>
+        <v>-3.146185424503292</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.1204925384472373</v>
+        <v>0.1386448325456101</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.8005323981403164</v>
+        <v>-0.8622322538056471</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.33095041388231</v>
+        <v>2.243031611934483</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.55330163033406</v>
+        <v>7.774336693196565</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.61715457296988</v>
+        <v>2.507850780139719</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3333256068811817</v>
+        <v>0.1541525467293637</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.542261479461946</v>
+        <v>7.97643184958828</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3048889170946349</v>
+        <v>0.2206920786445749</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5730173178692157</v>
+        <v>0.590797372821857</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.383760775497453</v>
+        <v>6.424787269336495</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1217453244886233</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.4945061590016911</v>
+        <v>0.4945061590016914</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.02057716369573664</v>
@@ -769,7 +769,7 @@
         <v>-0.2854545157216363</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.5938912723992966</v>
+        <v>0.5938912723992963</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.83327439080885</v>
+        <v>-0.8526727565937444</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5666593093155465</v>
+        <v>-0.5798468446918987</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3320944719792825</v>
+        <v>-0.3445876409566932</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5003438946009175</v>
+        <v>-0.5006972292661933</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7781358804555325</v>
+        <v>-0.7734676314318608</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1866759993914271</v>
+        <v>-0.2081666764915949</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5925233051505825</v>
+        <v>-0.6182677443563905</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5988268548031699</v>
+        <v>-0.5715472543143671</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.0298615107409563</v>
+        <v>-0.003168663334833058</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1750283037573404</v>
+        <v>-0.1588425467260477</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6855504886517966</v>
+        <v>0.7115610915850823</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.039003575809305</v>
+        <v>2.0555287856862</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8685472877582421</v>
+        <v>0.8028582481008789</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1713121274897133</v>
+        <v>0.1469610375575732</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.27642469255393</v>
+        <v>2.422060957274822</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1198250126641364</v>
+        <v>0.05990934708214219</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1749637194026821</v>
+        <v>0.1670260790126528</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.666930728663142</v>
+        <v>1.738681541110783</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-2.662962852318013</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.9443728974644023</v>
+        <v>-0.9443728974644017</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-1.555044202728038</v>
@@ -869,7 +869,7 @@
         <v>0.8211742597730234</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>6.184758296359217</v>
+        <v>6.184758296359213</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.5042405217693231</v>
@@ -878,7 +878,7 @@
         <v>-0.955897641686735</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.723244195776934</v>
+        <v>2.723244195776932</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.435804119877306</v>
+        <v>-2.191562124697589</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.364025259774817</v>
+        <v>-5.198277716897679</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.018099005856889</v>
+        <v>-4.125806762944404</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.283719563833962</v>
+        <v>-4.196992719740181</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.270450892773152</v>
+        <v>-2.28799488275456</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.05988971112161</v>
+        <v>2.653626690366208</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.449264002246146</v>
+        <v>-2.483949753376159</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.029425975037795</v>
+        <v>-2.813684575127736</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4396173595456476</v>
+        <v>0.2243700467032285</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.200601245158498</v>
+        <v>3.290565695526907</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.2465778633664813</v>
+        <v>-0.1607839997513939</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.688928342485828</v>
+        <v>2.657739054197308</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.417821623472865</v>
+        <v>1.260394694095952</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.116685570424153</v>
+        <v>4.081177609261919</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.02937840231341</v>
+        <v>10.18010504424803</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.478761351784043</v>
+        <v>1.261268989141121</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9478924334390638</v>
+        <v>1.026320934765244</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.221661750582413</v>
+        <v>5.518523292193053</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.4062581614589515</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1440723052976836</v>
+        <v>-0.1440723052976835</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2263189869979174</v>
@@ -974,7 +974,7 @@
         <v>0.1195125683852334</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9001211862681582</v>
+        <v>0.9001211862681577</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.07525492050677884</v>
@@ -983,7 +983,7 @@
         <v>-0.1426620787741082</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4064281163969874</v>
+        <v>0.4064281163969869</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.311732947746829</v>
+        <v>-0.290195017335275</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.658060691580497</v>
+        <v>-0.6528069752403793</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5384487392857588</v>
+        <v>-0.5460031984853366</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5120163447303075</v>
+        <v>-0.5191828564508145</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2685045359375623</v>
+        <v>-0.2891732073304936</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3611091154872653</v>
+        <v>0.2892401375099654</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3153363106953734</v>
+        <v>-0.3200694846464334</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3880745545275974</v>
+        <v>-0.3802561889323945</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.03722732393844748</v>
+        <v>0.01837664551777048</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6285137196601333</v>
+        <v>0.6447148249999358</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.03140316529052656</v>
+        <v>-0.01543347315287725</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5042919716012773</v>
+        <v>0.4805427429207347</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2643047102537581</v>
+        <v>0.256033790191001</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7895993461736446</v>
+        <v>0.7310512967963866</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.885986484225624</v>
+        <v>1.882666529794423</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2579638198379393</v>
+        <v>0.2245747680749783</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1708950050840596</v>
+        <v>0.185107501605263</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9052257126643203</v>
+        <v>0.9187967078846225</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-2.5197734150331</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.756473216053699</v>
+        <v>3.756473216053696</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.097512990267616</v>
+        <v>-5.821638193020893</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.494334352668</v>
+        <v>-7.391052312056662</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.385380985521452</v>
+        <v>-1.145247120817401</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.044209112612938</v>
+        <v>-3.267762868986251</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.897750930734336</v>
+        <v>-2.84493604717107</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.145679006518425</v>
+        <v>1.931013791061832</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.591578292530501</v>
+        <v>-3.663481215913515</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.556314514013434</v>
+        <v>-4.458493254489722</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.338655801801494</v>
+        <v>1.468498967208665</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.254069517531074</v>
+        <v>0.3518023892890907</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.669922410805315</v>
+        <v>-2.00327076198799</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.343948753633137</v>
+        <v>6.431190150857008</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.779624129492431</v>
+        <v>1.847142274605415</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.185522536177416</v>
+        <v>2.133565237156888</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.629841010899659</v>
+        <v>7.735107368951757</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07641074622150082</v>
+        <v>0.1926885078859642</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.5609372112481287</v>
+        <v>-0.6673099015537197</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.877546736330472</v>
+        <v>6.126938917090128</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.3239285761142819</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.482912079644958</v>
+        <v>0.4829120796449576</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5160431744283083</v>
+        <v>-0.510975716269737</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6471737992701312</v>
+        <v>-0.6409711815819513</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1246324712644387</v>
+        <v>-0.1029643994650567</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4399683400833826</v>
+        <v>-0.4543942424557045</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4196752849933352</v>
+        <v>-0.4093522398709723</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2843141486011407</v>
+        <v>0.2768173030585632</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4112267632903157</v>
+        <v>-0.4073152651691315</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5151383918249914</v>
+        <v>-0.4908940662247063</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1581201832227753</v>
+        <v>0.1722233789791326</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.02836093120132644</v>
+        <v>0.04321846084202217</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1860500953747275</v>
+        <v>-0.211402178544128</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7416208266104415</v>
+        <v>0.762923213316223</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.407098915821158</v>
+        <v>0.4085443392898937</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4918034014262015</v>
+        <v>0.4750227593877412</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.808493671243442</v>
+        <v>1.714935538616332</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02194612411640265</v>
+        <v>0.02977016160008627</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.08280504994300709</v>
+        <v>-0.07771836650278854</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8913095034177083</v>
+        <v>0.9144851752324132</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.806505351583845</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6.188077832219265</v>
+        <v>6.188077832219261</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.4085398606712177</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.250008841874373</v>
+        <v>-5.511108255540016</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.945156251652524</v>
+        <v>-5.664596874696291</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.862100784922874</v>
+        <v>2.533538317880895</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.18640864279614</v>
+        <v>-3.103968980011341</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.590375274624105</v>
+        <v>-3.948953426281101</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.883154421882142</v>
+        <v>5.141903160324309</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.467886893423344</v>
+        <v>-3.314257694183877</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.091300419110888</v>
+        <v>-4.364627514213726</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.89774933040161</v>
+        <v>4.850149286109362</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8244880839714001</v>
+        <v>0.4719548019120786</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07617946593685714</v>
+        <v>-0.239558245955958</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.953713427304569</v>
+        <v>9.817675894840349</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.817622865345675</v>
+        <v>2.542205422700186</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9661397149029323</v>
+        <v>0.9240752985858431</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.81715356135726</v>
+        <v>10.81326417915439</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6994923987956607</v>
+        <v>0.859433319519836</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.2939689122693394</v>
+        <v>-0.4210438564200314</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.472393846856956</v>
+        <v>9.402378261529153</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.3988983486406058</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.8795329847273444</v>
+        <v>0.8795329847273441</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.07623418904538518</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5979162330920312</v>
+        <v>-0.6172703201829586</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6601407158946704</v>
+        <v>-0.64476264926673</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3104504504491338</v>
+        <v>0.2744099992443631</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4593243099875672</v>
+        <v>-0.4740461025592183</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6116500220633313</v>
+        <v>-0.58902161072283</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6057016282079231</v>
+        <v>0.6872399722060951</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4594959546526979</v>
+        <v>-0.4494409683570889</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.555961305599509</v>
+        <v>-0.5715192243957182</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6266478055649078</v>
+        <v>0.6518215157920335</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1532132709903513</v>
+        <v>0.1030061609586066</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.03780539412730282</v>
+        <v>-0.02487394323656067</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.867037885691527</v>
+        <v>1.833634118918601</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7638655567758931</v>
+        <v>0.64099611657111</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2524632472740762</v>
+        <v>0.247117620009049</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.736742488443255</v>
+        <v>2.798561852982638</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1439322746536677</v>
+        <v>0.1918347871936422</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.04604279208052883</v>
+        <v>-0.06173638391031744</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.841922329154567</v>
+        <v>1.968951877578482</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-6.606910566266611</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.572272164890692</v>
+        <v>2.57227216489069</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-3.249445591932755</v>
@@ -1511,7 +1511,7 @@
         <v>-2.618457410529274</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>5.055297153885721</v>
+        <v>5.055297153885725</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-4.508671795372409</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.594195153493649</v>
+        <v>-9.051443843748508</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.39798141038905</v>
+        <v>-9.821973347111367</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.466442376085544</v>
+        <v>-1.779248533372485</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.664738318358399</v>
+        <v>-6.262279132990016</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.120656353410877</v>
+        <v>-6.063892882001043</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.665492208931197</v>
+        <v>1.790487234506768</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.81202503528117</v>
+        <v>-6.96002635791247</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.709679671176374</v>
+        <v>-7.00758216139474</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.342381154307105</v>
+        <v>1.286187564790297</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-2.472216924255893</v>
+        <v>-2.330262799717485</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-3.697621830305041</v>
+        <v>-3.652838807408977</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.229689969282772</v>
+        <v>6.097880608506841</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.34804961201142</v>
+        <v>-0.007343016319769967</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2229829243571555</v>
+        <v>0.4775982019722136</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.31109836925166</v>
+        <v>8.55913890940284</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-2.319178015038422</v>
+        <v>-2.269607688882572</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.183636235130793</v>
+        <v>-2.444493446086276</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.327354283404611</v>
+        <v>6.313184497138284</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.7839040652681313</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.3051978056626386</v>
+        <v>0.3051978056626384</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.4560748636475313</v>
@@ -1616,7 +1616,7 @@
         <v>-0.3675127256904445</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7095345636437712</v>
+        <v>0.7095345636437719</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.5807932319474076</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8560288213344618</v>
+        <v>-0.8595316632763721</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.9084220818610194</v>
+        <v>-0.9031458196758204</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1416645861334147</v>
+        <v>-0.160274324411735</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7327670718790408</v>
+        <v>-0.7183238896267167</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6712236690562448</v>
+        <v>-0.6606556730514028</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1584970144771354</v>
+        <v>0.1768718332916419</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.7414288742538018</v>
+        <v>-0.7489124637607382</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.740394958181986</v>
+        <v>-0.753498084821895</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1458576709105789</v>
+        <v>0.1314207832291296</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3383524263987363</v>
+        <v>-0.2859501252326436</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.5113004001340123</v>
+        <v>-0.5606764139010081</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.053723001858476</v>
+        <v>1.038726351815797</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.03881238917287795</v>
+        <v>0.03366724560261847</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.07073132393705266</v>
+        <v>0.1385665802363722</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.616335815418064</v>
+        <v>1.665978345523263</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.3273300963317292</v>
+        <v>-0.3423931327952552</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.3404766689814024</v>
+        <v>-0.3660478946638781</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.012508610862735</v>
+        <v>1.011413505616376</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-0.7217861925885274</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>4.956620733863891</v>
+        <v>4.956620733863892</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.287169493744948</v>
@@ -1734,7 +1734,7 @@
         <v>-0.7261446051562155</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>5.879752279922883</v>
+        <v>5.879752279922884</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.991978047135485</v>
+        <v>-2.781786963779319</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.419764809431901</v>
+        <v>-3.054936853931159</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3.565961111953869</v>
+        <v>4.089883434063802</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.052061489510967</v>
+        <v>-2.997985755493304</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.27108971413486</v>
+        <v>-3.337457349504337</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2.316759293206908</v>
+        <v>2.163297283742177</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.214235457618644</v>
+        <v>-2.139025183412955</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.599931270814443</v>
+        <v>-2.361830026006694</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>3.789334055718388</v>
+        <v>3.896859594731777</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.59793685329</v>
+        <v>2.771577418073877</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.429241795933308</v>
+        <v>1.647416091065277</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10.10728600838108</v>
+        <v>10.07745364833773</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.154240501525704</v>
+        <v>2.086614313987321</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.675693415590773</v>
+        <v>1.621251698244663</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.494506601425423</v>
+        <v>7.443304318697108</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.615656883100435</v>
+        <v>1.696763106620258</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.240491305148802</v>
+        <v>1.082386123487087</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>7.960555790204249</v>
+        <v>8.011613815698441</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8224527444100458</v>
+        <v>-0.7544995580480915</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8529301043921081</v>
+        <v>-0.8378123647822426</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.6869545294861102</v>
+        <v>0.7714743843031652</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.6762657486616126</v>
+        <v>-0.664104968580305</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.7484795326120889</v>
+        <v>-0.7227961888861384</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3953967430727179</v>
+        <v>0.3832534846812568</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.5827467068693808</v>
+        <v>-0.5763695265850275</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.6632983556969824</v>
+        <v>-0.6388060981945719</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.8447942416425992</v>
+        <v>0.9651825681640342</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.29360591549851</v>
+        <v>2.722981248824116</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.39835843506264</v>
+        <v>1.975050439012956</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>8.438763285394469</v>
+        <v>9.031736377911209</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.149796881046049</v>
+        <v>1.253779179449267</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.012173902044267</v>
+        <v>0.9188640609114629</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.926218832461231</v>
+        <v>4.005208943364743</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.9383338941681111</v>
+        <v>0.909088434537343</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.7655223176472563</v>
+        <v>0.5861004356172081</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>4.41313249880222</v>
+        <v>4.353409721781849</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-0.1011205059644964</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3.166706684591768</v>
+        <v>3.166706684591769</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-0.2611438073114914</v>
@@ -1939,7 +1939,7 @@
         <v>0.7976728115562277</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>3.045101295936992</v>
+        <v>3.045101295936991</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.2259774846198926</v>
@@ -1948,7 +1948,7 @@
         <v>0.4477100227834183</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>3.098365465002301</v>
+        <v>3.0983654650023</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.704533572083197</v>
+        <v>-2.931605714245772</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.809992063853758</v>
+        <v>-2.850668916746761</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.4255845105656694</v>
+        <v>0.1700243358203173</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.428487245628098</v>
+        <v>-2.140263670880411</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.265917363620423</v>
+        <v>-1.332792246623337</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.013846635396458</v>
+        <v>0.9197068060484678</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.711528379583398</v>
+        <v>-1.763088189088017</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.233178937611124</v>
+        <v>-1.330478683440996</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.301002816765033</v>
+        <v>1.339421576550657</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.181463688277842</v>
+        <v>2.910546684112292</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.153795221840418</v>
+        <v>2.057580863081526</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.851117504886823</v>
+        <v>5.421521806128668</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.325598906303578</v>
+        <v>1.405206161243153</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.402698904920181</v>
+        <v>3.750534220991558</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>4.744104836003221</v>
+        <v>4.940021825131458</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.30081191256255</v>
+        <v>1.317281457199088</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.224755730612015</v>
+        <v>2.261333712784019</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.704956990472206</v>
+        <v>4.607428312579376</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.4896628618939684</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>1.869278974692037</v>
+        <v>1.869278974692036</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.1301943415866359</v>
@@ -2053,7 +2053,7 @@
         <v>0.2579430058533085</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>1.785087803721997</v>
+        <v>1.785087803721996</v>
       </c>
     </row>
     <row r="44">
@@ -2063,32 +2063,30 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C44" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="C44" s="6" t="inlineStr"/>
       <c r="D44" s="6" t="n">
-        <v>-0.8732270389208981</v>
+        <v>-0.8672757689343739</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.136822720611378</v>
+        <v>-0.03982941640016052</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.8424103513307887</v>
+        <v>-0.794617233683799</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6352971382957996</v>
+        <v>-0.6779076694213756</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2049759481407438</v>
+        <v>0.1600138116818915</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.6731639310671186</v>
+        <v>-0.6881758203910612</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.5242518026020169</v>
+        <v>-0.5786198249447874</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3810901332477791</v>
+        <v>0.3838970486069537</v>
       </c>
     </row>
     <row r="45">
@@ -2098,32 +2096,30 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C45" s="6" t="n">
-        <v>6.886120021089417</v>
-      </c>
+      <c r="C45" s="6" t="inlineStr"/>
       <c r="D45" s="6" t="n">
-        <v>3.795916964188896</v>
+        <v>3.49730818948562</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>9.082069317243157</v>
+        <v>7.571923870998287</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.264974059197121</v>
+        <v>3.025240755688858</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>5.304432951731871</v>
+        <v>5.787999553248043</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>6.896999782061738</v>
+        <v>7.284581010927717</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.386544855542065</v>
+        <v>1.443578099184649</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>2.246058788558187</v>
+        <v>2.362994437175132</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>5.00327015895521</v>
+        <v>4.856052452401848</v>
       </c>
     </row>
     <row r="46">
@@ -2162,7 +2158,7 @@
         <v>-1.912558265441774</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>4.255048201070688</v>
+        <v>4.255048201070691</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2169,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.176542620985613</v>
+        <v>-3.109691753488826</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.228292112376158</v>
+        <v>-4.125929771270929</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.703352003492004</v>
+        <v>1.788816302465591</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.041443041222522</v>
+        <v>-2.025971145840173</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.990474088361541</v>
+        <v>-1.917289460666955</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>4.057717360902848</v>
+        <v>4.139249800397938</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.306087679845901</v>
+        <v>-2.267906447800408</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.637637086442634</v>
+        <v>-2.717116768422173</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>3.297079088993802</v>
+        <v>3.380856711494193</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2204,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.8850848369674374</v>
+        <v>-0.8553613845881217</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.903780771836782</v>
+        <v>-2.015924821114252</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.543124151218797</v>
+        <v>4.769392518075315</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.05830794382409349</v>
+        <v>0.03148757942289656</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.1454425654927637</v>
+        <v>0.07675863220680332</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.339002238512199</v>
+        <v>6.352955574875462</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.6901811380227526</v>
+        <v>-0.7380924589722457</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.181667692138058</v>
+        <v>-1.116245413932849</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>5.222675702591141</v>
+        <v>5.291470110764694</v>
       </c>
     </row>
     <row r="49">
@@ -2267,7 +2263,7 @@
         <v>-0.3249934471775632</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.7230434793855707</v>
+        <v>0.7230434793855712</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2274,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.440989055365348</v>
+        <v>-0.4367696197462457</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5741424486741239</v>
+        <v>-0.5654754968051062</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.2294759814328863</v>
+        <v>0.2499863358013583</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.347808248612915</v>
+        <v>-0.3470578267620147</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3372783706413646</v>
+        <v>-0.3366518796905109</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.7001101778525837</v>
+        <v>0.7016228400991056</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3583879106255291</v>
+        <v>-0.3601438333103249</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.4266613085239268</v>
+        <v>-0.4273874150656981</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.5188855434044229</v>
+        <v>0.5315047149293841</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2309,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.1513973023306263</v>
+        <v>-0.1451036338611356</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.312823172987273</v>
+        <v>-0.3315987811628968</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.7605920421863509</v>
+        <v>0.7886139101797901</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.01922512300944077</v>
+        <v>0.008715587448146253</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.03681724216156741</v>
+        <v>0.01981231100103474</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.382182770365229</v>
+        <v>1.361624232411255</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.1238781323286513</v>
+        <v>-0.1317163135176486</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.2146723154713491</v>
+        <v>-0.2013364251886594</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.9683688953881368</v>
+        <v>0.9691846852976446</v>
       </c>
     </row>
     <row r="52">
